--- a/database.xlsx
+++ b/database.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
@@ -510,6 +510,46 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1117969982</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>м</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1117969982</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>м</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
